--- a/study/준홍/삼성전자_news.xlsx
+++ b/study/준홍/삼성전자_news.xlsx
@@ -514,7 +514,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 펼쳐</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 10월 군인·경찰·소방관에 최대 50% 할인</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>또 떨어진 &lt;b&gt;삼성전자&lt;/b&gt;, 신저가 경신… 9월에만 16%↓</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 펼쳐</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방 위한 'K-Hero Festa' 실시</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 공무원 위한 'K-Hero Festa' 실시</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 대상 ‘K-Hero Festa’ 실시</t>
+          <t>또 떨어진 &lt;b&gt;삼성전자&lt;/b&gt;, 신저가 경신… 9월에만 16%↓</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -619,12 +619,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[E Works] &lt;b&gt;삼성전자&lt;/b&gt;·LG전자</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 대상 ‘K-Hero Festa’ 실시</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>기사 본문을 불러오는 데 실패했습니다.</t>
+          <t>본문을 찾을 수 없습니다.</t>
         </is>
       </c>
     </row>
@@ -640,12 +640,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 개최</t>
+          <t>[E Works] &lt;b&gt;삼성전자&lt;/b&gt;·LG전자</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>본문을 찾을 수 없습니다.</t>
+          <t>기사 본문을 불러오는 데 실패했습니다.</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 사이클대회서 ‘갤럭시워치 울트라’ 체험</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방관 위한 'K-히어로 페스타' 개최</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 펼쳐</t>
+          <t>검찰, '&lt;b&gt;삼성&lt;/b&gt; 부당합병 혐의' 공소장 변경…삼바 1심 회계 문제 포함</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 10월 군인·경찰·소방관 대상 'K-히어로 페스타'(종합)</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 펼쳐</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[특징주]美반도체주 약세 여파…&lt;b&gt;삼성전자&lt;/b&gt;, 52주 신저가</t>
+          <t>&lt;b&gt;삼성&lt;/b&gt;, 군인·경찰·소방·교정공무원 대상 'K-히어로 페스타'(종합)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 트랙 바이시클과 함께 '갤럭시 워치 울트라' 체험 행사</t>
+          <t>[특징주]美반도체주 약세 여파…&lt;b&gt;삼성전자&lt;/b&gt;, 52주 신저가</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 펼쳐</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 트랙 바이시클과 함께 '갤럭시 워치 울트라' 체험 행사</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 펼쳐</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 개최</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 펼쳐</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 사이클대회서 ‘갤럭시워치 울트라’ 체험</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 대상 50% 할인</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, ‘갤럭시 워치 울트라’ 체험 행사 펼쳐</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, ‘갤럭시 워치 울트라’ 체험 행사 펼쳐</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 펼쳐</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방관 위한 'K-히어로 페스타' 개최</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 펼쳐</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, ‘2024 산티니 충주 그란폰도’서 갤럭시워치 울트라 체험 행...</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 대상 50% 할인</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -972,11 +972,11 @@
         <v>9</v>
       </c>
       <c r="C26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 디지털 헬스 연구 강화…'리서치 스택' 공개</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 펼쳐</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방 공무원 대상 최대 50% 가전 할인</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, ‘2024 산티니 충주 그란폰도’서 갤럭시워치 울트라 체험 행...</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 대상 할인 행사 진행</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 10월 경찰·소방관 대상 50% 가전 할인</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1035,11 +1035,11 @@
         <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt; 3%대 하락하며 11개월 만 최저가…美·中 반도체 갈등 여파</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 디지털 헬스 연구 강화…'리서치 스택' 공개</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>&amp;quot;군인·경찰·소방관은 50% 할인&amp;quot; &lt;b&gt;삼성전자&lt;/b&gt; 가전 행사 열어</t>
+          <t>TSMC, 역대 최대 매출…&lt;b&gt;삼성전자&lt;/b&gt; 파운드리는 부진 지속</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>TSMC, 역대 최대 매출…&lt;b&gt;삼성전자&lt;/b&gt; 파운드리는 부진 지속</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방 공무원 대상 최대 50% 가전 할인</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 펼쳐</t>
+          <t>&amp;quot;군인·경찰·소방관은 50% 할인&amp;quot; &lt;b&gt;삼성전자&lt;/b&gt; 가전 행사 열어</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방 공무원 대상 'K-Hero Festa' 실시</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 대상 할인 행사 진행</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt; ‘K-히어로 페스타’…군인·경찰·소방 최대 50% 할인</t>
+          <t>'K-영웅'군인·경찰·소방관·교도관, &lt;b&gt;삼성전자&lt;/b&gt;로…가전 최대 반값 할인</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>&amp;quot;최대 50% 할인가 프로모션&amp;quot;...&lt;b&gt;삼성전자&lt;/b&gt;, '제복 입은 영웅'에 감사 전한...</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt; 3%대 하락하며 11개월 만 최저가…美·中 반도체 갈등 여파</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방 대상 최대 50% 할인 프로모션 실시</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 펼쳐</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 사이클 대회서 '갤럭시워치 울트라' 체험행사</t>
+          <t>&amp;quot;최대 50% 할인가 프로모션&amp;quot;...&lt;b&gt;삼성전자&lt;/b&gt;, '제복 입은 영웅'에 감사 전한...</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 갤럭시 워치 울트라 체험 행사 펼쳐</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt; ‘K-히어로 페스타’…군인·경찰·소방·교정 최대 50% 할인</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 펼쳐</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방관에 최대 50% 할인 쏜다</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 10월 한달 간 ‘K-Hero Festa’</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 사이클 대회서 '갤럭시워치 울트라' 체험행사</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 공무원 대상 'K-Hero Festa' 실시</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 갤럭시 워치 울트라 체험 행사 펼쳐</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[비즈투데이] &lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방 공무원 대상 'K-He</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 펼쳐</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>외인, 코스피에서 1조 넘게 '팔자'…&lt;b&gt;삼성전자&lt;/b&gt; 또 신저가</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방 대상 최대 50% 할인 프로모션 실시</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt; ‘K-히어로 페스타’…군인·경찰·소방 최대 50% 할인</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 10월 한달 간 ‘K-Hero Festa’</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방관에 최대 50% 할인 쏜다</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 공무원 대상 'K-Hero Festa' 실시</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 두 달 빠른 AI 보급폰 출시…'불안한' 1위 지키기 총력</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방·교정 공무원에 전자제품 할인 행사</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방공무원 대상 인기제품 최대 50% 할인 판매</t>
+          <t>[비즈투데이] &lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방 공무원 대상 'K-He</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>'K-영웅'군인·경찰·소방관, &lt;b&gt;삼성전자&lt;/b&gt;로…가전 최대 반값 할인</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 사이클대회서 '갤워치 울트라' 체험존 차려</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt; 신저가로 장마감…6만원선 붕괴 `코앞`</t>
+          <t>외인, 코스피에서 1조 넘게 '팔자'…&lt;b&gt;삼성전자&lt;/b&gt; 또 신저가</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 사이클대회서 '갤워치 울트라' 체험존 차려</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 두 달 빠른 AI 보급폰 출시…'불안한' 1위 지키기 총력</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방 공무원 대상 'K-Hero Festa' 실시</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방공무원 대상 인기제품 최대 50% 할인 판매</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 대상 가전 할인 프로모션</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt; 신저가로 장마감…6만원선 붕괴 `코앞`</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[포토] 이재용 &lt;b&gt;삼성전자&lt;/b&gt; 회장, 항소심 첫 공판 출석</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 펼쳐</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방 공무원 대상 'K-Hero Festa' 실시</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 10월 군인·경찰·소방관 대상 'K-히어로 페스타'</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 대상 가전 할인 프로모션</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방 공무원 대상 'K-히어로 페스타' 실시</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 펼쳐</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 진행</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방 공무원 대상 할인 프로모션 실시</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 개최</t>
+          <t>이재용 &lt;b&gt;삼성전자&lt;/b&gt; 회장, 항소심 돌입</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 대상 'K-Hero Festa' 실시</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방·교정·해양경찰 대상 ‘K-히어로 페스타’...</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 개최</t>
+          <t>&lt;b&gt;삼성&lt;/b&gt; 다시 사법리스크… 이재용 회장 항소심 시작</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>&amp;quot;&lt;b&gt;삼성전자&lt;/b&gt;, 3분기 실적 전망치 하향…목표가↓&amp;quot;-iM</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 진행</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 실시</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 개최</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1753,12 +1753,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 최대 50% 할인 ‘K-Hero Festa’ 실시</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 펼쳐</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>기사 본문을 불러오는 데 실패했습니다.</t>
+          <t>본문을 찾을 수 없습니다.</t>
         </is>
       </c>
     </row>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 대상 'K-Hero Festa' 실시</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 실시</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>&amp;quot;사이클 훈련도 AI&amp;quot;…&lt;b&gt;삼성전자&lt;/b&gt;, 사이클 대회서 갤워치 선봬</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 개최</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>[특징주] &lt;b&gt;삼성전자&lt;/b&gt;, 장중 3% 약세...52주 신저가 경신</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방·교정·해양경찰 공무원공무원 대상 'K-Hero ...</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 10월 군인·경찰·소방 공무원 대상 최대 50% 프로모션</t>
+          <t>&amp;quot;&lt;b&gt;삼성전자&lt;/b&gt;, 3분기 실적 전망치 하향…목표가↓&amp;quot;-iM</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>파운드리 잇단 적자 전망…&lt;b&gt;삼성전자&lt;/b&gt; '가시밭길'</t>
+          <t>&amp;quot;사이클 훈련도 AI&amp;quot;…&lt;b&gt;삼성전자&lt;/b&gt;, 사이클 대회서 갤워치 선봬</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원에 최대 50% 할인···1일부터</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 10월 군인·경찰·소방·교정 공무원 대상 'K-히어로 페스타'</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 성료</t>
+          <t>파운드리 잇단 적자 전망…&lt;b&gt;삼성전자&lt;/b&gt; '가시밭길'</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 대상 'K-Hero Festa' 실시</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt; ‘K-히어로 페스타’…군인·경찰·소방 최대 50% 할인</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -1942,12 +1942,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>법정 향하는 이재용 &lt;b&gt;삼성전자&lt;/b&gt; 회장</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 최대 50% 할인 ‘K-Hero Festa’ 실시</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>본문을 찾을 수 없습니다.</t>
+          <t>기사 본문을 불러오는 데 실패했습니다.</t>
         </is>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[포토] 이재용 &lt;b&gt;삼성전자&lt;/b&gt; 회장, 항소심 첫 공판 출석</t>
+          <t>돌파구 못찾는 &lt;b&gt;삼성전자&lt;/b&gt; 파운드리...분사설 힘 받나</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 대상 'K-Hero Festa' 실시</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 10월 군인·경찰·소방 공무원 대상 최대 50% 프로모션</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 산티니 충주 그란폰도서 '갤럭시 워치 울트라' 체험 행사</t>
+          <t>[특징주] &lt;b&gt;삼성전자&lt;/b&gt;, 장중 3% 약세...52주 신저가 경신</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방관 등 ‘K-Hero Festa’ 10월 실시</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인 경찰 소방공무원 대상 'K-Hero Festa' 1일부터</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 'K-Hero Festa' 실시</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 산티니 충주 그란폰도서 '갤럭시 워치 울트라' 체험 행사</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 'K-Hero Festa' 실시</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 성료</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 유명 사이클 대회서 '갤럭시 워치 울트라' 체험 행사</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 대상 'K-Hero Festa' 실시</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, ‘갤럭시 워치 울트라’ 체험 행사 펼쳐</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 대상 'K-Hero Festa' 실시</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>&amp;quot;감사해요&amp;quot;…&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 대상 50% 할인</t>
+          <t>법정 향하는 이재용 &lt;b&gt;삼성전자&lt;/b&gt; 회장</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 대상 'K-Hero Festa' 진행</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방·교정 공무원에 최대 50% 할인···1일부터</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 재직군인·경찰·소방공무원 대상 할인 프로모션</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 유명 사이클 대회서 '갤럭시 워치 울트라' 체험 행사</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 사이클 대회서 '갤럭시 워치 울트라' 체험 행사 진행</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방관 등 ‘K-Hero Festa’ 10월 실시</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성&lt;/b&gt; 다시 사법리스크… 이재용 회장 항소심 시작</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, ‘갤럭시 워치 울트라’ 체험 행사 펼쳐</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방 공무원 대상 최대 50% ‘할인가 프로모션’...</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 에픽게임즈 주장에 &amp;quot;사실 무근&amp;quot;... 오토 블로커는 선택사항</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 직업 군인·경찰·소방 공무원 대상 'K-Hero Festa' 프로모션 ...</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 'K-Hero Festa' 실시</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 트렉 바이시클과 '갤럭시 워치 울트라' 체험 행사</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 'K-Hero Festa' 실시</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>“‘6만&lt;b&gt;전자&lt;/b&gt;’ 붕괴 겁낼 줄이야”…‘두달 만에 -31%’ 신저가 &lt;b&gt;삼성&lt;/b&gt;전...</t>
+          <t>&amp;quot;감사해요&amp;quot;…&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 대상 50% 할인</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 위한 'K-히어로 페스타' 개최</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 재직군인·경찰·소방공무원 대상 할인 프로모션</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 사이클링 대회서 '갤럭시 워치 울트라' 체험 부스 운영</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 사이클 대회서 '갤럭시 워치 울트라' 체험 행사 진행</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 대상 'K-히어로 페스타' 실시</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 대상 'K-Hero Festa' 진행</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 직업군인∙경찰∙소방 공무원 대상 'K-Hero Festa' 프로모션 실...</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 트렉 바이시클과 '갤럭시 워치 울트라' 체험 행사</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인∙경찰∙소방 공무원 대상 'K-Hero Festa' 진행</t>
+          <t>구글, 직무 교육 프로그램에 AI 과정 추가…&amp;quot;&lt;b&gt;삼성전자&lt;/b&gt;와 협력 강화&amp;quot;</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 사이클 대회서 '갤럭시 워치 울트라' 체험 행사 진행</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 직업 군인·경찰·소방 공무원 대상 'K-Hero Festa' 프로모션 ...</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2509,7 +2509,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방관 위한 ‘K-Hero Festa’ 실시</t>
+          <t>“‘6만&lt;b&gt;전자&lt;/b&gt;’ 붕괴 겁낼 줄이야”…‘두달 만에 -31%’ 신저가 &lt;b&gt;삼성&lt;/b&gt;전...</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[특징주]또 떨어진 &lt;b&gt;삼성전자&lt;/b&gt;, 1년 중 최저가… 한달새 -16%</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방 공무원 대상 최대 50% ‘할인가 프로모션’...</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>&lt;b&gt;삼성전자&lt;/b&gt;, '갤럭시 워치 울트라' 체험 행사 가져</t>
+          <t>&lt;b&gt;삼성전자&lt;/b&gt;, 군인·경찰·소방 공무원 대상 'K-히어로 페스타' 실시</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
